--- a/1_fetch/in/lake_huc6_huc8_huc10_structure_table.xlsx
+++ b/1_fetch/in/lake_huc6_huc8_huc10_structure_table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/msleckman/USGS/Vizlab/saline-lakes/1_fetch/in/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{786DA642-8E6B-AC41-9298-BD329F5917A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20EECE6C-27AD-8240-9973-A0BC586F9558}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="43280" yWindow="-6200" windowWidth="35840" windowHeight="19980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10655" uniqueCount="1659">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10575" uniqueCount="1659">
   <si>
     <t>lake_w_state</t>
   </si>
@@ -5078,14 +5078,9 @@
   <autoFilter ref="A1:H1464" xr:uid="{00000000-0009-0000-0100-000003000000}">
     <filterColumn colId="0">
       <filters>
-        <filter val="Harney Lake,OR"/>
-        <filter val="Malheur Lake,OR"/>
+        <filter val="Carson Lake,NV"/>
+        <filter val="Carson Sink,NV"/>
       </filters>
-    </filterColumn>
-    <filterColumn colId="7">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
     </filterColumn>
   </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A835:H1317">
@@ -5386,8 +5381,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H1464"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1117" sqref="H1117"/>
+    <sheetView tabSelected="1" topLeftCell="A250" workbookViewId="0">
+      <selection activeCell="G301" sqref="G301"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10455,7 +10450,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="201" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>459</v>
       </c>
@@ -10477,11 +10472,9 @@
       <c r="G201" t="s">
         <v>465</v>
       </c>
-      <c r="H201" s="1" t="s">
-        <v>1639</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H201" s="1"/>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>459</v>
       </c>
@@ -10503,11 +10496,9 @@
       <c r="G202" t="s">
         <v>467</v>
       </c>
-      <c r="H202" s="1" t="s">
-        <v>1639</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H202" s="1"/>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>459</v>
       </c>
@@ -10529,11 +10520,9 @@
       <c r="G203" t="s">
         <v>469</v>
       </c>
-      <c r="H203" s="1" t="s">
-        <v>1639</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H203" s="1"/>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>459</v>
       </c>
@@ -10555,11 +10544,9 @@
       <c r="G204" t="s">
         <v>473</v>
       </c>
-      <c r="H204" s="1" t="s">
-        <v>1639</v>
-      </c>
-    </row>
-    <row r="205" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H204" s="1"/>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>459</v>
       </c>
@@ -10581,11 +10568,9 @@
       <c r="G205" t="s">
         <v>475</v>
       </c>
-      <c r="H205" s="1" t="s">
-        <v>1639</v>
-      </c>
-    </row>
-    <row r="206" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H205" s="1"/>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>459</v>
       </c>
@@ -10607,11 +10592,9 @@
       <c r="G206" t="s">
         <v>473</v>
       </c>
-      <c r="H206" s="1" t="s">
-        <v>1639</v>
-      </c>
-    </row>
-    <row r="207" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H206" s="1"/>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>459</v>
       </c>
@@ -10633,11 +10616,9 @@
       <c r="G207" t="s">
         <v>482</v>
       </c>
-      <c r="H207" s="1" t="s">
-        <v>1639</v>
-      </c>
-    </row>
-    <row r="208" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H207" s="1"/>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>459</v>
       </c>
@@ -10659,11 +10640,9 @@
       <c r="G208" t="s">
         <v>486</v>
       </c>
-      <c r="H208" s="1" t="s">
-        <v>1639</v>
-      </c>
-    </row>
-    <row r="209" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H208" s="1"/>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>459</v>
       </c>
@@ -10685,11 +10664,9 @@
       <c r="G209" t="s">
         <v>490</v>
       </c>
-      <c r="H209" s="1" t="s">
-        <v>1639</v>
-      </c>
-    </row>
-    <row r="210" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H209" s="1"/>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>459</v>
       </c>
@@ -10711,11 +10688,9 @@
       <c r="G210" t="s">
         <v>492</v>
       </c>
-      <c r="H210" s="1" t="s">
-        <v>1639</v>
-      </c>
-    </row>
-    <row r="211" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H210" s="1"/>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>459</v>
       </c>
@@ -10737,11 +10712,9 @@
       <c r="G211" t="s">
         <v>494</v>
       </c>
-      <c r="H211" s="1" t="s">
-        <v>1639</v>
-      </c>
-    </row>
-    <row r="212" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H211" s="1"/>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>459</v>
       </c>
@@ -10763,11 +10736,9 @@
       <c r="G212" t="s">
         <v>496</v>
       </c>
-      <c r="H212" s="1" t="s">
-        <v>1639</v>
-      </c>
-    </row>
-    <row r="213" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H212" s="1"/>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>459</v>
       </c>
@@ -10789,11 +10760,9 @@
       <c r="G213" t="s">
         <v>498</v>
       </c>
-      <c r="H213" s="1" t="s">
-        <v>1639</v>
-      </c>
-    </row>
-    <row r="214" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H213" s="1"/>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>459</v>
       </c>
@@ -10815,11 +10784,9 @@
       <c r="G214" t="s">
         <v>502</v>
       </c>
-      <c r="H214" s="1" t="s">
-        <v>1639</v>
-      </c>
-    </row>
-    <row r="215" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H214" s="1"/>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>459</v>
       </c>
@@ -10841,11 +10808,9 @@
       <c r="G215" t="s">
         <v>504</v>
       </c>
-      <c r="H215" s="1" t="s">
-        <v>1639</v>
-      </c>
-    </row>
-    <row r="216" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H215" s="1"/>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>459</v>
       </c>
@@ -10867,11 +10832,9 @@
       <c r="G216" t="s">
         <v>506</v>
       </c>
-      <c r="H216" s="1" t="s">
-        <v>1639</v>
-      </c>
-    </row>
-    <row r="217" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H216" s="1"/>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>459</v>
       </c>
@@ -10893,11 +10856,9 @@
       <c r="G217" t="s">
         <v>508</v>
       </c>
-      <c r="H217" s="1" t="s">
-        <v>1639</v>
-      </c>
-    </row>
-    <row r="218" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H217" s="1"/>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>459</v>
       </c>
@@ -10919,11 +10880,9 @@
       <c r="G218" t="s">
         <v>510</v>
       </c>
-      <c r="H218" s="1" t="s">
-        <v>1639</v>
-      </c>
-    </row>
-    <row r="219" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H218" s="1"/>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>459</v>
       </c>
@@ -10945,11 +10904,9 @@
       <c r="G219" t="s">
         <v>512</v>
       </c>
-      <c r="H219" s="1" t="s">
-        <v>1639</v>
-      </c>
-    </row>
-    <row r="220" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H219" s="1"/>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>459</v>
       </c>
@@ -10971,11 +10928,9 @@
       <c r="G220" t="s">
         <v>514</v>
       </c>
-      <c r="H220" s="1" t="s">
-        <v>1639</v>
-      </c>
-    </row>
-    <row r="221" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H220" s="1"/>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>459</v>
       </c>
@@ -10997,11 +10952,9 @@
       <c r="G221" t="s">
         <v>516</v>
       </c>
-      <c r="H221" s="1" t="s">
-        <v>1639</v>
-      </c>
-    </row>
-    <row r="222" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H221" s="1"/>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>459</v>
       </c>
@@ -11023,11 +10976,9 @@
       <c r="G222" t="s">
         <v>518</v>
       </c>
-      <c r="H222" s="1" t="s">
-        <v>1639</v>
-      </c>
-    </row>
-    <row r="223" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H222" s="1"/>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>459</v>
       </c>
@@ -11049,11 +11000,9 @@
       <c r="G223" t="s">
         <v>520</v>
       </c>
-      <c r="H223" s="1" t="s">
-        <v>1639</v>
-      </c>
-    </row>
-    <row r="224" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H223" s="1"/>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>459</v>
       </c>
@@ -11075,11 +11024,9 @@
       <c r="G224" t="s">
         <v>522</v>
       </c>
-      <c r="H224" s="1" t="s">
-        <v>1639</v>
-      </c>
-    </row>
-    <row r="225" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H224" s="1"/>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>459</v>
       </c>
@@ -11101,11 +11048,9 @@
       <c r="G225" t="s">
         <v>524</v>
       </c>
-      <c r="H225" s="1" t="s">
-        <v>1639</v>
-      </c>
-    </row>
-    <row r="226" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H225" s="1"/>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>459</v>
       </c>
@@ -11127,11 +11072,9 @@
       <c r="G226" t="s">
         <v>526</v>
       </c>
-      <c r="H226" s="1" t="s">
-        <v>1639</v>
-      </c>
-    </row>
-    <row r="227" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H226" s="1"/>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>459</v>
       </c>
@@ -11153,11 +11096,9 @@
       <c r="G227" t="s">
         <v>528</v>
       </c>
-      <c r="H227" s="1" t="s">
-        <v>1639</v>
-      </c>
-    </row>
-    <row r="228" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H227" s="1"/>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>459</v>
       </c>
@@ -11179,11 +11120,9 @@
       <c r="G228" t="s">
         <v>530</v>
       </c>
-      <c r="H228" s="1" t="s">
-        <v>1639</v>
-      </c>
-    </row>
-    <row r="229" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H228" s="1"/>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>459</v>
       </c>
@@ -11205,11 +11144,9 @@
       <c r="G229" t="s">
         <v>532</v>
       </c>
-      <c r="H229" s="1" t="s">
-        <v>1639</v>
-      </c>
-    </row>
-    <row r="230" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H229" s="1"/>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>459</v>
       </c>
@@ -11231,11 +11168,9 @@
       <c r="G230" t="s">
         <v>534</v>
       </c>
-      <c r="H230" s="1" t="s">
-        <v>1639</v>
-      </c>
-    </row>
-    <row r="231" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H230" s="1"/>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>459</v>
       </c>
@@ -11257,11 +11192,9 @@
       <c r="G231" t="s">
         <v>536</v>
       </c>
-      <c r="H231" s="1" t="s">
-        <v>1639</v>
-      </c>
-    </row>
-    <row r="232" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H231" s="1"/>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>459</v>
       </c>
@@ -11283,11 +11216,9 @@
       <c r="G232" t="s">
         <v>538</v>
       </c>
-      <c r="H232" s="1" t="s">
-        <v>1639</v>
-      </c>
-    </row>
-    <row r="233" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H232" s="1"/>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>459</v>
       </c>
@@ -11309,11 +11240,9 @@
       <c r="G233" t="s">
         <v>542</v>
       </c>
-      <c r="H233" s="1" t="s">
-        <v>1639</v>
-      </c>
-    </row>
-    <row r="234" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H233" s="1"/>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>459</v>
       </c>
@@ -11335,11 +11264,9 @@
       <c r="G234" t="s">
         <v>544</v>
       </c>
-      <c r="H234" s="1" t="s">
-        <v>1639</v>
-      </c>
-    </row>
-    <row r="235" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H234" s="1"/>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>459</v>
       </c>
@@ -11361,11 +11288,9 @@
       <c r="G235" t="s">
         <v>546</v>
       </c>
-      <c r="H235" s="1" t="s">
-        <v>1639</v>
-      </c>
-    </row>
-    <row r="236" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H235" s="1"/>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>459</v>
       </c>
@@ -11387,11 +11312,9 @@
       <c r="G236" t="s">
         <v>550</v>
       </c>
-      <c r="H236" s="1" t="s">
-        <v>1639</v>
-      </c>
-    </row>
-    <row r="237" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H236" s="1"/>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>459</v>
       </c>
@@ -11413,11 +11336,9 @@
       <c r="G237" t="s">
         <v>199</v>
       </c>
-      <c r="H237" s="1" t="s">
-        <v>1639</v>
-      </c>
-    </row>
-    <row r="238" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H237" s="1"/>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>459</v>
       </c>
@@ -11439,11 +11360,9 @@
       <c r="G238" t="s">
         <v>553</v>
       </c>
-      <c r="H238" s="1" t="s">
-        <v>1639</v>
-      </c>
-    </row>
-    <row r="239" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H238" s="1"/>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>459</v>
       </c>
@@ -11465,11 +11384,9 @@
       <c r="G239" t="s">
         <v>555</v>
       </c>
-      <c r="H239" s="1" t="s">
-        <v>1639</v>
-      </c>
-    </row>
-    <row r="240" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H239" s="1"/>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>459</v>
       </c>
@@ -11491,11 +11408,9 @@
       <c r="G240" t="s">
         <v>557</v>
       </c>
-      <c r="H240" s="1" t="s">
-        <v>1639</v>
-      </c>
-    </row>
-    <row r="241" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H240" s="1"/>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>459</v>
       </c>
@@ -11517,11 +11432,9 @@
       <c r="G241" t="s">
         <v>559</v>
       </c>
-      <c r="H241" s="1" t="s">
-        <v>1639</v>
-      </c>
-    </row>
-    <row r="242" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H241" s="1"/>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>459</v>
       </c>
@@ -11543,11 +11456,9 @@
       <c r="G242" t="s">
         <v>561</v>
       </c>
-      <c r="H242" s="1" t="s">
-        <v>1639</v>
-      </c>
-    </row>
-    <row r="243" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H242" s="1"/>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>459</v>
       </c>
@@ -11569,11 +11480,9 @@
       <c r="G243" t="s">
         <v>563</v>
       </c>
-      <c r="H243" s="1" t="s">
-        <v>1639</v>
-      </c>
-    </row>
-    <row r="244" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H243" s="1"/>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>459</v>
       </c>
@@ -11595,11 +11504,9 @@
       <c r="G244" t="s">
         <v>565</v>
       </c>
-      <c r="H244" s="1" t="s">
-        <v>1639</v>
-      </c>
-    </row>
-    <row r="245" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H244" s="1"/>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>459</v>
       </c>
@@ -11621,11 +11528,9 @@
       <c r="G245" t="s">
         <v>567</v>
       </c>
-      <c r="H245" s="1" t="s">
-        <v>1639</v>
-      </c>
-    </row>
-    <row r="246" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H245" s="1"/>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>459</v>
       </c>
@@ -11647,11 +11552,9 @@
       <c r="G246" t="s">
         <v>569</v>
       </c>
-      <c r="H246" s="1" t="s">
-        <v>1639</v>
-      </c>
-    </row>
-    <row r="247" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H246" s="1"/>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>459</v>
       </c>
@@ -11673,11 +11576,9 @@
       <c r="G247" t="s">
         <v>571</v>
       </c>
-      <c r="H247" s="1" t="s">
-        <v>1639</v>
-      </c>
-    </row>
-    <row r="248" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H247" s="1"/>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>459</v>
       </c>
@@ -11699,11 +11600,9 @@
       <c r="G248" t="s">
         <v>573</v>
       </c>
-      <c r="H248" s="1" t="s">
-        <v>1639</v>
-      </c>
-    </row>
-    <row r="249" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H248" s="1"/>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>459</v>
       </c>
@@ -11725,11 +11624,9 @@
       <c r="G249" t="s">
         <v>575</v>
       </c>
-      <c r="H249" s="1" t="s">
-        <v>1639</v>
-      </c>
-    </row>
-    <row r="250" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H249" s="1"/>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>459</v>
       </c>
@@ -11751,11 +11648,9 @@
       <c r="G250" t="s">
         <v>577</v>
       </c>
-      <c r="H250" s="1" t="s">
-        <v>1639</v>
-      </c>
-    </row>
-    <row r="251" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H250" s="1"/>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>459</v>
       </c>
@@ -11777,11 +11672,9 @@
       <c r="G251" t="s">
         <v>391</v>
       </c>
-      <c r="H251" s="1" t="s">
-        <v>1639</v>
-      </c>
-    </row>
-    <row r="252" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H251" s="1"/>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>459</v>
       </c>
@@ -11803,11 +11696,9 @@
       <c r="G252" t="s">
         <v>580</v>
       </c>
-      <c r="H252" s="1" t="s">
-        <v>1639</v>
-      </c>
-    </row>
-    <row r="253" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H252" s="1"/>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>459</v>
       </c>
@@ -11829,11 +11720,9 @@
       <c r="G253" t="s">
         <v>582</v>
       </c>
-      <c r="H253" s="1" t="s">
-        <v>1639</v>
-      </c>
-    </row>
-    <row r="254" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H253" s="1"/>
+    </row>
+    <row r="254" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>459</v>
       </c>
@@ -11855,11 +11744,9 @@
       <c r="G254" t="s">
         <v>467</v>
       </c>
-      <c r="H254" s="1" t="s">
-        <v>1639</v>
-      </c>
-    </row>
-    <row r="255" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H254" s="1"/>
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>459</v>
       </c>
@@ -11881,11 +11768,9 @@
       <c r="G255" t="s">
         <v>585</v>
       </c>
-      <c r="H255" s="1" t="s">
-        <v>1639</v>
-      </c>
-    </row>
-    <row r="256" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H255" s="1"/>
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>459</v>
       </c>
@@ -11907,11 +11792,9 @@
       <c r="G256" t="s">
         <v>587</v>
       </c>
-      <c r="H256" s="1" t="s">
-        <v>1639</v>
-      </c>
-    </row>
-    <row r="257" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H256" s="1"/>
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>459</v>
       </c>
@@ -11933,11 +11816,9 @@
       <c r="G257" t="s">
         <v>589</v>
       </c>
-      <c r="H257" s="1" t="s">
-        <v>1639</v>
-      </c>
-    </row>
-    <row r="258" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H257" s="1"/>
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>459</v>
       </c>
@@ -11959,11 +11840,9 @@
       <c r="G258" t="s">
         <v>591</v>
       </c>
-      <c r="H258" s="1" t="s">
-        <v>1639</v>
-      </c>
-    </row>
-    <row r="259" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H258" s="1"/>
+    </row>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>459</v>
       </c>
@@ -11985,11 +11864,9 @@
       <c r="G259" t="s">
         <v>593</v>
       </c>
-      <c r="H259" s="1" t="s">
-        <v>1639</v>
-      </c>
-    </row>
-    <row r="260" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H259" s="1"/>
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>459</v>
       </c>
@@ -12011,11 +11888,9 @@
       <c r="G260" t="s">
         <v>595</v>
       </c>
-      <c r="H260" s="1" t="s">
-        <v>1639</v>
-      </c>
-    </row>
-    <row r="261" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H260" s="1"/>
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>459</v>
       </c>
@@ -12037,11 +11912,9 @@
       <c r="G261" t="s">
         <v>597</v>
       </c>
-      <c r="H261" s="1" t="s">
-        <v>1639</v>
-      </c>
-    </row>
-    <row r="262" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H261" s="1"/>
+    </row>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>459</v>
       </c>
@@ -12063,11 +11936,9 @@
       <c r="G262" t="s">
         <v>599</v>
       </c>
-      <c r="H262" s="1" t="s">
-        <v>1639</v>
-      </c>
-    </row>
-    <row r="263" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H262" s="1"/>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>459</v>
       </c>
@@ -12089,11 +11960,9 @@
       <c r="G263" t="s">
         <v>601</v>
       </c>
-      <c r="H263" s="1" t="s">
-        <v>1639</v>
-      </c>
-    </row>
-    <row r="264" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H263" s="1"/>
+    </row>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>459</v>
       </c>
@@ -12115,11 +11984,9 @@
       <c r="G264" t="s">
         <v>603</v>
       </c>
-      <c r="H264" s="1" t="s">
-        <v>1639</v>
-      </c>
-    </row>
-    <row r="265" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H264" s="1"/>
+    </row>
+    <row r="265" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>459</v>
       </c>
@@ -12141,11 +12008,9 @@
       <c r="G265" t="s">
         <v>605</v>
       </c>
-      <c r="H265" s="1" t="s">
-        <v>1639</v>
-      </c>
-    </row>
-    <row r="266" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H265" s="1"/>
+    </row>
+    <row r="266" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>459</v>
       </c>
@@ -12167,11 +12032,9 @@
       <c r="G266" t="s">
         <v>607</v>
       </c>
-      <c r="H266" s="1" t="s">
-        <v>1639</v>
-      </c>
-    </row>
-    <row r="267" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H266" s="1"/>
+    </row>
+    <row r="267" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>459</v>
       </c>
@@ -12193,11 +12056,9 @@
       <c r="G267" t="s">
         <v>609</v>
       </c>
-      <c r="H267" s="1" t="s">
-        <v>1639</v>
-      </c>
-    </row>
-    <row r="268" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H267" s="1"/>
+    </row>
+    <row r="268" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>459</v>
       </c>
@@ -12219,11 +12080,9 @@
       <c r="G268" t="s">
         <v>611</v>
       </c>
-      <c r="H268" s="1" t="s">
-        <v>1639</v>
-      </c>
-    </row>
-    <row r="269" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H268" s="1"/>
+    </row>
+    <row r="269" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>459</v>
       </c>
@@ -12245,11 +12104,9 @@
       <c r="G269" t="s">
         <v>613</v>
       </c>
-      <c r="H269" s="1" t="s">
-        <v>1639</v>
-      </c>
-    </row>
-    <row r="270" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H269" s="1"/>
+    </row>
+    <row r="270" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>459</v>
       </c>
@@ -12271,11 +12128,9 @@
       <c r="G270" t="s">
         <v>615</v>
       </c>
-      <c r="H270" s="1" t="s">
-        <v>1639</v>
-      </c>
-    </row>
-    <row r="271" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H270" s="1"/>
+    </row>
+    <row r="271" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>459</v>
       </c>
@@ -12297,11 +12152,9 @@
       <c r="G271" t="s">
         <v>617</v>
       </c>
-      <c r="H271" s="1" t="s">
-        <v>1639</v>
-      </c>
-    </row>
-    <row r="272" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H271" s="1"/>
+    </row>
+    <row r="272" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>459</v>
       </c>
@@ -12323,11 +12176,9 @@
       <c r="G272" t="s">
         <v>619</v>
       </c>
-      <c r="H272" s="1" t="s">
-        <v>1639</v>
-      </c>
-    </row>
-    <row r="273" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H272" s="1"/>
+    </row>
+    <row r="273" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>459</v>
       </c>
@@ -12349,11 +12200,9 @@
       <c r="G273" t="s">
         <v>621</v>
       </c>
-      <c r="H273" s="1" t="s">
-        <v>1639</v>
-      </c>
-    </row>
-    <row r="274" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H273" s="1"/>
+    </row>
+    <row r="274" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>459</v>
       </c>
@@ -12375,11 +12224,9 @@
       <c r="G274" t="s">
         <v>623</v>
       </c>
-      <c r="H274" s="1" t="s">
-        <v>1639</v>
-      </c>
-    </row>
-    <row r="275" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H274" s="1"/>
+    </row>
+    <row r="275" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>459</v>
       </c>
@@ -12401,11 +12248,9 @@
       <c r="G275" t="s">
         <v>625</v>
       </c>
-      <c r="H275" s="1" t="s">
-        <v>1639</v>
-      </c>
-    </row>
-    <row r="276" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H275" s="1"/>
+    </row>
+    <row r="276" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>459</v>
       </c>
@@ -12427,11 +12272,9 @@
       <c r="G276" t="s">
         <v>627</v>
       </c>
-      <c r="H276" s="1" t="s">
-        <v>1639</v>
-      </c>
-    </row>
-    <row r="277" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H276" s="1"/>
+    </row>
+    <row r="277" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>459</v>
       </c>
@@ -12453,11 +12296,9 @@
       <c r="G277" t="s">
         <v>629</v>
       </c>
-      <c r="H277" s="1" t="s">
-        <v>1639</v>
-      </c>
-    </row>
-    <row r="278" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H277" s="1"/>
+    </row>
+    <row r="278" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>459</v>
       </c>
@@ -12479,11 +12320,9 @@
       <c r="G278" t="s">
         <v>631</v>
       </c>
-      <c r="H278" s="1" t="s">
-        <v>1639</v>
-      </c>
-    </row>
-    <row r="279" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H278" s="1"/>
+    </row>
+    <row r="279" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>459</v>
       </c>
@@ -12505,9 +12344,7 @@
       <c r="G279" t="s">
         <v>633</v>
       </c>
-      <c r="H279" s="1" t="s">
-        <v>1639</v>
-      </c>
+      <c r="H279" s="1"/>
     </row>
     <row r="280" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
@@ -12558,7 +12395,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="282" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>641</v>
       </c>
@@ -12584,7 +12421,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="283" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>459</v>
       </c>
@@ -13034,7 +12871,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="301" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>641</v>
       </c>
@@ -13060,7 +12897,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="302" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>459</v>
       </c>
@@ -13135,7 +12972,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="305" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>641</v>
       </c>
@@ -13161,7 +12998,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="306" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>459</v>
       </c>
@@ -13187,7 +13024,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="307" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>641</v>
       </c>
@@ -13213,7 +13050,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="308" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>459</v>
       </c>
@@ -13363,7 +13200,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="314" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>641</v>
       </c>
@@ -13389,7 +13226,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="315" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>459</v>
       </c>
@@ -13415,7 +13252,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="316" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>641</v>
       </c>
@@ -13441,7 +13278,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="317" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>459</v>
       </c>
@@ -13565,7 +13402,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="322" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>641</v>
       </c>
@@ -13591,7 +13428,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="323" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>459</v>
       </c>
@@ -13617,7 +13454,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="324" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>641</v>
       </c>
@@ -13643,7 +13480,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="325" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>459</v>
       </c>
@@ -13669,7 +13506,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="326" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>641</v>
       </c>
@@ -13695,7 +13532,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="327" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>459</v>
       </c>
@@ -13721,7 +13558,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="328" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>641</v>
       </c>
@@ -13747,7 +13584,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="329" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>459</v>
       </c>
@@ -13822,7 +13659,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="332" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>641</v>
       </c>
@@ -13848,7 +13685,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="333" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>459</v>
       </c>
@@ -13874,7 +13711,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="334" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>641</v>
       </c>
@@ -13900,7 +13737,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="335" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>459</v>
       </c>
@@ -14102,7 +13939,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="343" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>641</v>
       </c>
@@ -14128,7 +13965,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="344" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>459</v>
       </c>
@@ -14255,7 +14092,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="349" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>641</v>
       </c>
@@ -14281,7 +14118,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="350" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>459</v>
       </c>
@@ -14307,7 +14144,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="351" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>641</v>
       </c>
@@ -14333,7 +14170,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="352" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>459</v>
       </c>
@@ -14483,7 +14320,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="358" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>641</v>
       </c>
@@ -14509,7 +14346,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="359" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>459</v>
       </c>
@@ -14711,7 +14548,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="367" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>641</v>
       </c>
@@ -14737,7 +14574,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="368" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>459</v>
       </c>
@@ -14916,7 +14753,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="375" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>641</v>
       </c>
@@ -14942,7 +14779,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="376" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>459</v>
       </c>
@@ -14968,7 +14805,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="377" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>641</v>
       </c>
@@ -14994,7 +14831,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="378" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>459</v>
       </c>
@@ -25541,7 +25378,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="835" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="835" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A835" t="s">
         <v>1270</v>
       </c>
@@ -25593,7 +25430,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="837" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="837" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A837" t="s">
         <v>1270</v>
       </c>
@@ -25688,7 +25525,7 @@
         <v>1268</v>
       </c>
     </row>
-    <row r="841" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="841" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A841" t="s">
         <v>1270</v>
       </c>
@@ -25737,7 +25574,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="843" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="843" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A843" t="s">
         <v>1270</v>
       </c>
@@ -25832,7 +25669,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="847" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="847" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A847" t="s">
         <v>1270</v>
       </c>
@@ -25881,7 +25718,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="849" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="849" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A849" t="s">
         <v>1270</v>
       </c>
@@ -25979,7 +25816,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="853" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="853" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A853" t="s">
         <v>1270</v>
       </c>
@@ -26028,7 +25865,7 @@
         <v>1283</v>
       </c>
     </row>
-    <row r="855" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="855" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A855" t="s">
         <v>1270</v>
       </c>
@@ -26126,7 +25963,7 @@
         <v>1283</v>
       </c>
     </row>
-    <row r="859" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="859" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A859" t="s">
         <v>1270</v>
       </c>
@@ -26178,7 +26015,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="861" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="861" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A861" t="s">
         <v>1270</v>
       </c>
@@ -26273,7 +26110,7 @@
         <v>1285</v>
       </c>
     </row>
-    <row r="865" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="865" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A865" t="s">
         <v>1270</v>
       </c>
@@ -26322,7 +26159,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="867" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="867" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A867" t="s">
         <v>1270</v>
       </c>
@@ -26420,7 +26257,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="871" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="871" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A871" t="s">
         <v>1270</v>
       </c>
@@ -26469,7 +26306,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="873" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="873" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A873" t="s">
         <v>1270</v>
       </c>
@@ -26567,7 +26404,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="877" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="877" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A877" t="s">
         <v>1270</v>
       </c>
@@ -26616,7 +26453,7 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="879" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="879" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A879" t="s">
         <v>1270</v>
       </c>
@@ -26711,7 +26548,7 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="883" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="883" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A883" t="s">
         <v>1270</v>
       </c>
@@ -26760,7 +26597,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="885" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="885" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A885" t="s">
         <v>1270</v>
       </c>
@@ -27324,7 +27161,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="909" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="909" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A909" t="s">
         <v>1270</v>
       </c>
@@ -27601,7 +27438,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="921" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="921" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A921" t="s">
         <v>1270</v>
       </c>
@@ -27740,7 +27577,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="927" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="927" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A927" t="s">
         <v>1270</v>
       </c>
@@ -27879,7 +27716,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="933" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="933" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A933" t="s">
         <v>1270</v>
       </c>
@@ -28156,7 +27993,7 @@
         <v>1318</v>
       </c>
     </row>
-    <row r="945" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="945" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A945" t="s">
         <v>1270</v>
       </c>
@@ -29361,7 +29198,7 @@
         <v>1337</v>
       </c>
     </row>
-    <row r="997" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="997" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A997" t="s">
         <v>1270</v>
       </c>
@@ -29924,7 +29761,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="1021" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1021" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1021" t="s">
         <v>1270</v>
       </c>
@@ -30207,7 +30044,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="1033" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1033" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1033" t="s">
         <v>1270</v>
       </c>
@@ -30672,7 +30509,7 @@
         <v>1359</v>
       </c>
     </row>
-    <row r="1053" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1053" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1053" t="s">
         <v>1270</v>
       </c>
@@ -30768,7 +30605,7 @@
         <v>1359</v>
       </c>
     </row>
-    <row r="1057" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1057" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1057" t="s">
         <v>1270</v>
       </c>
@@ -30953,7 +30790,7 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="1065" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1065" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1065" t="s">
         <v>1270</v>
       </c>
@@ -31237,7 +31074,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="1077" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1077" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1077" t="s">
         <v>1262</v>
       </c>
@@ -31332,7 +31169,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="1081" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1081" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1081" t="s">
         <v>1262</v>
       </c>
@@ -31381,7 +31218,7 @@
         <v>1369</v>
       </c>
     </row>
-    <row r="1083" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1083" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1083" t="s">
         <v>1262</v>
       </c>
@@ -31479,7 +31316,7 @@
         <v>1369</v>
       </c>
     </row>
-    <row r="1087" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1087" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1087" t="s">
         <v>1262</v>
       </c>
@@ -31528,7 +31365,7 @@
         <v>1371</v>
       </c>
     </row>
-    <row r="1089" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1089" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1089" t="s">
         <v>1262</v>
       </c>
@@ -31623,7 +31460,7 @@
         <v>1371</v>
       </c>
     </row>
-    <row r="1093" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1093" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1093" t="s">
         <v>1262</v>
       </c>
@@ -31672,7 +31509,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="1095" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1095" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1095" t="s">
         <v>1262</v>
       </c>
@@ -31767,7 +31604,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="1099" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1099" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1099" t="s">
         <v>1262</v>
       </c>
@@ -31816,7 +31653,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="1101" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1101" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1101" t="s">
         <v>1262</v>
       </c>
@@ -31914,7 +31751,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="1105" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1105" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1105" t="s">
         <v>1262</v>
       </c>
@@ -31963,7 +31800,7 @@
         <v>1376</v>
       </c>
     </row>
-    <row r="1107" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1107" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1107" t="s">
         <v>1262</v>
       </c>
@@ -32058,7 +31895,7 @@
         <v>1376</v>
       </c>
     </row>
-    <row r="1111" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1111" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1111" t="s">
         <v>1262</v>
       </c>
@@ -32107,7 +31944,7 @@
         <v>1378</v>
       </c>
     </row>
-    <row r="1113" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1113" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1113" t="s">
         <v>1262</v>
       </c>
@@ -32205,7 +32042,7 @@
         <v>1378</v>
       </c>
     </row>
-    <row r="1117" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1117" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1117" t="s">
         <v>1262</v>
       </c>
@@ -32257,7 +32094,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="1119" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1119" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1119" t="s">
         <v>1262</v>
       </c>
@@ -32352,7 +32189,7 @@
         <v>1380</v>
       </c>
     </row>
-    <row r="1123" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1123" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1123" t="s">
         <v>1262</v>
       </c>
@@ -32401,7 +32238,7 @@
         <v>1382</v>
       </c>
     </row>
-    <row r="1125" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1125" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1125" t="s">
         <v>1262</v>
       </c>
@@ -32499,7 +32336,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="1129" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1129" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1129" t="s">
         <v>1262</v>
       </c>
@@ -32548,7 +32385,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="1131" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1131" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1131" t="s">
         <v>1262</v>
       </c>
@@ -32649,7 +32486,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="1135" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1135" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1135" t="s">
         <v>1262</v>
       </c>
@@ -32698,7 +32535,7 @@
         <v>1385</v>
       </c>
     </row>
-    <row r="1137" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1137" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1137" t="s">
         <v>1262</v>
       </c>
@@ -32799,7 +32636,7 @@
         <v>1385</v>
       </c>
     </row>
-    <row r="1141" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1141" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1141" t="s">
         <v>1262</v>
       </c>
@@ -32848,7 +32685,7 @@
         <v>1387</v>
       </c>
     </row>
-    <row r="1143" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1143" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1143" t="s">
         <v>1262</v>
       </c>
@@ -32943,7 +32780,7 @@
         <v>1387</v>
       </c>
     </row>
-    <row r="1147" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1147" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1147" t="s">
         <v>1262</v>
       </c>
@@ -32992,7 +32829,7 @@
         <v>1389</v>
       </c>
     </row>
-    <row r="1149" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1149" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1149" t="s">
         <v>1262</v>
       </c>
@@ -34338,7 +34175,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="1207" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1207" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1207" t="s">
         <v>1262</v>
       </c>
@@ -35727,7 +35564,7 @@
         <v>1424</v>
       </c>
     </row>
-    <row r="1267" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1267" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1267" t="s">
         <v>1262</v>
       </c>
@@ -35914,7 +35751,7 @@
         <v>1428</v>
       </c>
     </row>
-    <row r="1275" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1275" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1275" t="s">
         <v>1262</v>
       </c>
@@ -36331,7 +36168,7 @@
         <v>1434</v>
       </c>
     </row>
-    <row r="1293" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1293" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1293" t="s">
         <v>1262</v>
       </c>
@@ -38532,9 +38369,6 @@
       </c>
       <c r="G1386" t="s">
         <v>1571</v>
-      </c>
-      <c r="H1386" t="s">
-        <v>1639</v>
       </c>
     </row>
     <row r="1387" spans="1:8" hidden="1" x14ac:dyDescent="0.2">

--- a/1_fetch/in/lake_huc6_huc8_huc10_structure_table.xlsx
+++ b/1_fetch/in/lake_huc6_huc8_huc10_structure_table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/msleckman/USGS/Vizlab/saline-lakes/1_fetch/in/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20EECE6C-27AD-8240-9973-A0BC586F9558}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E24DEA3C-F9A3-274D-9EC4-263A0D7F8499}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43280" yWindow="-6200" windowWidth="35840" windowHeight="19980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lake_huc8_huc10" sheetId="1" r:id="rId1"/>
@@ -5050,12 +5050,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5078,8 +5077,8 @@
   <autoFilter ref="A1:H1464" xr:uid="{00000000-0009-0000-0100-000003000000}">
     <filterColumn colId="0">
       <filters>
-        <filter val="Carson Lake,NV"/>
-        <filter val="Carson Sink,NV"/>
+        <filter val="Silver Lake,OR"/>
+        <filter val="Summer Lake,OR"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -5381,8 +5380,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H1464"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A250" workbookViewId="0">
-      <selection activeCell="G301" sqref="G301"/>
+    <sheetView tabSelected="1" topLeftCell="A952" workbookViewId="0">
+      <selection activeCell="H1025" sqref="H1025"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10450,7 +10449,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>459</v>
       </c>
@@ -10474,7 +10473,7 @@
       </c>
       <c r="H201" s="1"/>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>459</v>
       </c>
@@ -10498,7 +10497,7 @@
       </c>
       <c r="H202" s="1"/>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>459</v>
       </c>
@@ -10522,7 +10521,7 @@
       </c>
       <c r="H203" s="1"/>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>459</v>
       </c>
@@ -10546,7 +10545,7 @@
       </c>
       <c r="H204" s="1"/>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>459</v>
       </c>
@@ -10570,7 +10569,7 @@
       </c>
       <c r="H205" s="1"/>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>459</v>
       </c>
@@ -10594,7 +10593,7 @@
       </c>
       <c r="H206" s="1"/>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>459</v>
       </c>
@@ -10618,7 +10617,7 @@
       </c>
       <c r="H207" s="1"/>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>459</v>
       </c>
@@ -10642,7 +10641,7 @@
       </c>
       <c r="H208" s="1"/>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>459</v>
       </c>
@@ -10666,7 +10665,7 @@
       </c>
       <c r="H209" s="1"/>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>459</v>
       </c>
@@ -10690,7 +10689,7 @@
       </c>
       <c r="H210" s="1"/>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>459</v>
       </c>
@@ -10714,7 +10713,7 @@
       </c>
       <c r="H211" s="1"/>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>459</v>
       </c>
@@ -10738,7 +10737,7 @@
       </c>
       <c r="H212" s="1"/>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>459</v>
       </c>
@@ -10762,7 +10761,7 @@
       </c>
       <c r="H213" s="1"/>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>459</v>
       </c>
@@ -10786,7 +10785,7 @@
       </c>
       <c r="H214" s="1"/>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>459</v>
       </c>
@@ -10810,7 +10809,7 @@
       </c>
       <c r="H215" s="1"/>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>459</v>
       </c>
@@ -10834,7 +10833,7 @@
       </c>
       <c r="H216" s="1"/>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>459</v>
       </c>
@@ -10858,7 +10857,7 @@
       </c>
       <c r="H217" s="1"/>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>459</v>
       </c>
@@ -10882,7 +10881,7 @@
       </c>
       <c r="H218" s="1"/>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>459</v>
       </c>
@@ -10906,7 +10905,7 @@
       </c>
       <c r="H219" s="1"/>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>459</v>
       </c>
@@ -10930,7 +10929,7 @@
       </c>
       <c r="H220" s="1"/>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>459</v>
       </c>
@@ -10954,7 +10953,7 @@
       </c>
       <c r="H221" s="1"/>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>459</v>
       </c>
@@ -10978,7 +10977,7 @@
       </c>
       <c r="H222" s="1"/>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>459</v>
       </c>
@@ -11002,7 +11001,7 @@
       </c>
       <c r="H223" s="1"/>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>459</v>
       </c>
@@ -11026,7 +11025,7 @@
       </c>
       <c r="H224" s="1"/>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>459</v>
       </c>
@@ -11050,7 +11049,7 @@
       </c>
       <c r="H225" s="1"/>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>459</v>
       </c>
@@ -11074,7 +11073,7 @@
       </c>
       <c r="H226" s="1"/>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>459</v>
       </c>
@@ -11098,7 +11097,7 @@
       </c>
       <c r="H227" s="1"/>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>459</v>
       </c>
@@ -11122,7 +11121,7 @@
       </c>
       <c r="H228" s="1"/>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>459</v>
       </c>
@@ -11146,7 +11145,7 @@
       </c>
       <c r="H229" s="1"/>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>459</v>
       </c>
@@ -11170,7 +11169,7 @@
       </c>
       <c r="H230" s="1"/>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>459</v>
       </c>
@@ -11194,7 +11193,7 @@
       </c>
       <c r="H231" s="1"/>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>459</v>
       </c>
@@ -11218,7 +11217,7 @@
       </c>
       <c r="H232" s="1"/>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>459</v>
       </c>
@@ -11242,7 +11241,7 @@
       </c>
       <c r="H233" s="1"/>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>459</v>
       </c>
@@ -11266,7 +11265,7 @@
       </c>
       <c r="H234" s="1"/>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>459</v>
       </c>
@@ -11290,7 +11289,7 @@
       </c>
       <c r="H235" s="1"/>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>459</v>
       </c>
@@ -11314,7 +11313,7 @@
       </c>
       <c r="H236" s="1"/>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>459</v>
       </c>
@@ -11338,7 +11337,7 @@
       </c>
       <c r="H237" s="1"/>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>459</v>
       </c>
@@ -11362,7 +11361,7 @@
       </c>
       <c r="H238" s="1"/>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>459</v>
       </c>
@@ -11386,7 +11385,7 @@
       </c>
       <c r="H239" s="1"/>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>459</v>
       </c>
@@ -11410,7 +11409,7 @@
       </c>
       <c r="H240" s="1"/>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>459</v>
       </c>
@@ -11434,7 +11433,7 @@
       </c>
       <c r="H241" s="1"/>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>459</v>
       </c>
@@ -11458,7 +11457,7 @@
       </c>
       <c r="H242" s="1"/>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>459</v>
       </c>
@@ -11482,7 +11481,7 @@
       </c>
       <c r="H243" s="1"/>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>459</v>
       </c>
@@ -11506,7 +11505,7 @@
       </c>
       <c r="H244" s="1"/>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>459</v>
       </c>
@@ -11530,7 +11529,7 @@
       </c>
       <c r="H245" s="1"/>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>459</v>
       </c>
@@ -11554,7 +11553,7 @@
       </c>
       <c r="H246" s="1"/>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>459</v>
       </c>
@@ -11578,7 +11577,7 @@
       </c>
       <c r="H247" s="1"/>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>459</v>
       </c>
@@ -11602,7 +11601,7 @@
       </c>
       <c r="H248" s="1"/>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>459</v>
       </c>
@@ -11626,7 +11625,7 @@
       </c>
       <c r="H249" s="1"/>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>459</v>
       </c>
@@ -11650,7 +11649,7 @@
       </c>
       <c r="H250" s="1"/>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>459</v>
       </c>
@@ -11674,7 +11673,7 @@
       </c>
       <c r="H251" s="1"/>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>459</v>
       </c>
@@ -11698,7 +11697,7 @@
       </c>
       <c r="H252" s="1"/>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>459</v>
       </c>
@@ -11722,7 +11721,7 @@
       </c>
       <c r="H253" s="1"/>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>459</v>
       </c>
@@ -11746,7 +11745,7 @@
       </c>
       <c r="H254" s="1"/>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>459</v>
       </c>
@@ -11770,7 +11769,7 @@
       </c>
       <c r="H255" s="1"/>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>459</v>
       </c>
@@ -11794,7 +11793,7 @@
       </c>
       <c r="H256" s="1"/>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>459</v>
       </c>
@@ -11818,7 +11817,7 @@
       </c>
       <c r="H257" s="1"/>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>459</v>
       </c>
@@ -11842,7 +11841,7 @@
       </c>
       <c r="H258" s="1"/>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>459</v>
       </c>
@@ -11866,7 +11865,7 @@
       </c>
       <c r="H259" s="1"/>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>459</v>
       </c>
@@ -11890,7 +11889,7 @@
       </c>
       <c r="H260" s="1"/>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>459</v>
       </c>
@@ -11914,7 +11913,7 @@
       </c>
       <c r="H261" s="1"/>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>459</v>
       </c>
@@ -11938,7 +11937,7 @@
       </c>
       <c r="H262" s="1"/>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>459</v>
       </c>
@@ -11962,7 +11961,7 @@
       </c>
       <c r="H263" s="1"/>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>459</v>
       </c>
@@ -11986,7 +11985,7 @@
       </c>
       <c r="H264" s="1"/>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>459</v>
       </c>
@@ -12010,7 +12009,7 @@
       </c>
       <c r="H265" s="1"/>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>459</v>
       </c>
@@ -12034,7 +12033,7 @@
       </c>
       <c r="H266" s="1"/>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>459</v>
       </c>
@@ -12058,7 +12057,7 @@
       </c>
       <c r="H267" s="1"/>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>459</v>
       </c>
@@ -12082,7 +12081,7 @@
       </c>
       <c r="H268" s="1"/>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>459</v>
       </c>
@@ -12106,7 +12105,7 @@
       </c>
       <c r="H269" s="1"/>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>459</v>
       </c>
@@ -12130,7 +12129,7 @@
       </c>
       <c r="H270" s="1"/>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>459</v>
       </c>
@@ -12154,7 +12153,7 @@
       </c>
       <c r="H271" s="1"/>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>459</v>
       </c>
@@ -12178,7 +12177,7 @@
       </c>
       <c r="H272" s="1"/>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>459</v>
       </c>
@@ -12202,7 +12201,7 @@
       </c>
       <c r="H273" s="1"/>
     </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>459</v>
       </c>
@@ -12226,7 +12225,7 @@
       </c>
       <c r="H274" s="1"/>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>459</v>
       </c>
@@ -12250,7 +12249,7 @@
       </c>
       <c r="H275" s="1"/>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>459</v>
       </c>
@@ -12274,7 +12273,7 @@
       </c>
       <c r="H276" s="1"/>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>459</v>
       </c>
@@ -12298,7 +12297,7 @@
       </c>
       <c r="H277" s="1"/>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>459</v>
       </c>
@@ -12322,7 +12321,7 @@
       </c>
       <c r="H278" s="1"/>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>459</v>
       </c>
@@ -12395,7 +12394,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>641</v>
       </c>
@@ -12421,7 +12420,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>459</v>
       </c>
@@ -12871,7 +12870,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>641</v>
       </c>
@@ -12897,7 +12896,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>459</v>
       </c>
@@ -12972,7 +12971,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>641</v>
       </c>
@@ -12998,7 +12997,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>459</v>
       </c>
@@ -13024,7 +13023,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>641</v>
       </c>
@@ -13050,7 +13049,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>459</v>
       </c>
@@ -13200,7 +13199,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>641</v>
       </c>
@@ -13226,7 +13225,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>459</v>
       </c>
@@ -13252,7 +13251,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>641</v>
       </c>
@@ -13278,7 +13277,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>459</v>
       </c>
@@ -13402,7 +13401,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>641</v>
       </c>
@@ -13428,7 +13427,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>459</v>
       </c>
@@ -13454,7 +13453,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>641</v>
       </c>
@@ -13480,7 +13479,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>459</v>
       </c>
@@ -13506,7 +13505,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>641</v>
       </c>
@@ -13532,7 +13531,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>459</v>
       </c>
@@ -13558,7 +13557,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>641</v>
       </c>
@@ -13584,7 +13583,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>459</v>
       </c>
@@ -13659,7 +13658,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>641</v>
       </c>
@@ -13685,7 +13684,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>459</v>
       </c>
@@ -13711,7 +13710,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>641</v>
       </c>
@@ -13737,7 +13736,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>459</v>
       </c>
@@ -13939,7 +13938,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>641</v>
       </c>
@@ -13965,7 +13964,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>459</v>
       </c>
@@ -14092,7 +14091,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>641</v>
       </c>
@@ -14118,7 +14117,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>459</v>
       </c>
@@ -14144,7 +14143,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>641</v>
       </c>
@@ -14170,7 +14169,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>459</v>
       </c>
@@ -14320,7 +14319,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="358" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>641</v>
       </c>
@@ -14346,7 +14345,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="359" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>459</v>
       </c>
@@ -14548,7 +14547,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="367" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>641</v>
       </c>
@@ -14574,7 +14573,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="368" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>459</v>
       </c>
@@ -14753,7 +14752,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="375" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>641</v>
       </c>
@@ -14779,7 +14778,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="376" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>459</v>
       </c>
@@ -14805,7 +14804,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="377" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>641</v>
       </c>
@@ -14831,7 +14830,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="378" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>459</v>
       </c>
@@ -25456,7 +25455,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="838" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="838" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A838" t="s">
         <v>1271</v>
       </c>
@@ -25479,7 +25478,7 @@
         <v>1268</v>
       </c>
     </row>
-    <row r="839" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="839" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A839" t="s">
         <v>1272</v>
       </c>
@@ -25600,7 +25599,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="844" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="844" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A844" t="s">
         <v>1271</v>
       </c>
@@ -25623,7 +25622,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="845" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="845" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A845" t="s">
         <v>1272</v>
       </c>
@@ -25744,7 +25743,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="850" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="850" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A850" t="s">
         <v>1271</v>
       </c>
@@ -25767,7 +25766,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="851" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="851" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A851" t="s">
         <v>1272</v>
       </c>
@@ -25891,7 +25890,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="856" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="856" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A856" t="s">
         <v>1271</v>
       </c>
@@ -25914,7 +25913,7 @@
         <v>1283</v>
       </c>
     </row>
-    <row r="857" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="857" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A857" t="s">
         <v>1272</v>
       </c>
@@ -26041,7 +26040,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="862" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="862" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A862" t="s">
         <v>1271</v>
       </c>
@@ -26064,7 +26063,7 @@
         <v>1285</v>
       </c>
     </row>
-    <row r="863" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="863" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A863" t="s">
         <v>1272</v>
       </c>
@@ -26185,7 +26184,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="868" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="868" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A868" t="s">
         <v>1271</v>
       </c>
@@ -26208,7 +26207,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="869" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="869" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A869" t="s">
         <v>1272</v>
       </c>
@@ -26332,7 +26331,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="874" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="874" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A874" t="s">
         <v>1271</v>
       </c>
@@ -26355,7 +26354,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="875" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="875" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A875" t="s">
         <v>1272</v>
       </c>
@@ -26479,7 +26478,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="880" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="880" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A880" t="s">
         <v>1271</v>
       </c>
@@ -26502,7 +26501,7 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="881" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="881" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A881" t="s">
         <v>1272</v>
       </c>
@@ -26623,7 +26622,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="886" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="886" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A886" t="s">
         <v>1271</v>
       </c>
@@ -26646,7 +26645,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="887" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="887" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A887" t="s">
         <v>1272</v>
       </c>
@@ -26764,7 +26763,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="892" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="892" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A892" t="s">
         <v>1271</v>
       </c>
@@ -26787,7 +26786,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="893" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="893" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A893" t="s">
         <v>1272</v>
       </c>
@@ -26902,7 +26901,7 @@
         <v>1283</v>
       </c>
     </row>
-    <row r="898" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="898" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A898" t="s">
         <v>1271</v>
       </c>
@@ -26925,7 +26924,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="899" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="899" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A899" t="s">
         <v>1272</v>
       </c>
@@ -27043,7 +27042,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="904" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="904" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A904" t="s">
         <v>1271</v>
       </c>
@@ -27066,7 +27065,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="905" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="905" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A905" t="s">
         <v>1272</v>
       </c>
@@ -27185,7 +27184,7 @@
       </c>
       <c r="H909" s="1"/>
     </row>
-    <row r="910" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="910" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A910" t="s">
         <v>1271</v>
       </c>
@@ -27208,7 +27207,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="911" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="911" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A911" t="s">
         <v>1272</v>
       </c>
@@ -27323,7 +27322,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="916" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="916" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A916" t="s">
         <v>1271</v>
       </c>
@@ -27346,7 +27345,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="917" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="917" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A917" t="s">
         <v>1272</v>
       </c>
@@ -27462,7 +27461,7 @@
       </c>
       <c r="H921" s="1"/>
     </row>
-    <row r="922" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="922" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A922" t="s">
         <v>1271</v>
       </c>
@@ -27485,7 +27484,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="923" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="923" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A923" t="s">
         <v>1272</v>
       </c>
@@ -27599,9 +27598,9 @@
       <c r="G927" t="s">
         <v>1306</v>
       </c>
-      <c r="H927" s="4"/>
-    </row>
-    <row r="928" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H927" s="1"/>
+    </row>
+    <row r="928" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A928" t="s">
         <v>1271</v>
       </c>
@@ -27624,7 +27623,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="929" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="929" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A929" t="s">
         <v>1272</v>
       </c>
@@ -27738,9 +27737,9 @@
       <c r="G933" t="s">
         <v>1314</v>
       </c>
-      <c r="H933" s="4"/>
-    </row>
-    <row r="934" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H933" s="1"/>
+    </row>
+    <row r="934" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A934" t="s">
         <v>1271</v>
       </c>
@@ -27763,7 +27762,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="935" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="935" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A935" t="s">
         <v>1272</v>
       </c>
@@ -27878,7 +27877,7 @@
         <v>1318</v>
       </c>
     </row>
-    <row r="940" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="940" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A940" t="s">
         <v>1271</v>
       </c>
@@ -27901,7 +27900,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="941" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="941" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A941" t="s">
         <v>1272</v>
       </c>
@@ -28015,9 +28014,9 @@
       <c r="G945" t="s">
         <v>1324</v>
       </c>
-      <c r="H945" s="4"/>
-    </row>
-    <row r="946" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H945" s="1"/>
+    </row>
+    <row r="946" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A946" t="s">
         <v>1271</v>
       </c>
@@ -28040,7 +28039,7 @@
         <v>1318</v>
       </c>
     </row>
-    <row r="947" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="947" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A947" t="s">
         <v>1272</v>
       </c>
@@ -28158,7 +28157,7 @@
         <v>1335</v>
       </c>
     </row>
-    <row r="952" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="952" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A952" t="s">
         <v>1271</v>
       </c>
@@ -28181,7 +28180,7 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="953" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="953" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A953" t="s">
         <v>1272</v>
       </c>
@@ -28296,7 +28295,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="958" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="958" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A958" t="s">
         <v>1271</v>
       </c>
@@ -28319,7 +28318,7 @@
         <v>1322</v>
       </c>
     </row>
-    <row r="959" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="959" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A959" t="s">
         <v>1272</v>
       </c>
@@ -28437,7 +28436,7 @@
         <v>1349</v>
       </c>
     </row>
-    <row r="964" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="964" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A964" t="s">
         <v>1271</v>
       </c>
@@ -28460,7 +28459,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="965" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="965" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A965" t="s">
         <v>1272</v>
       </c>
@@ -28575,7 +28574,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="970" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="970" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A970" t="s">
         <v>1271</v>
       </c>
@@ -28598,7 +28597,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="971" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="971" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A971" t="s">
         <v>1272</v>
       </c>
@@ -28713,7 +28712,7 @@
         <v>1359</v>
       </c>
     </row>
-    <row r="976" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="976" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A976" t="s">
         <v>1271</v>
       </c>
@@ -28736,7 +28735,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="977" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="977" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A977" t="s">
         <v>1272</v>
       </c>
@@ -28852,7 +28851,7 @@
       </c>
       <c r="H981" s="2"/>
     </row>
-    <row r="982" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="982" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A982" t="s">
         <v>1271</v>
       </c>
@@ -28875,7 +28874,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="983" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="983" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A983" t="s">
         <v>1272</v>
       </c>
@@ -28991,7 +28990,7 @@
       </c>
       <c r="H987" s="2"/>
     </row>
-    <row r="988" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="988" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A988" t="s">
         <v>1271</v>
       </c>
@@ -29014,7 +29013,7 @@
         <v>1335</v>
       </c>
     </row>
-    <row r="989" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="989" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A989" t="s">
         <v>1272</v>
       </c>
@@ -29129,7 +29128,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="994" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="994" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A994" t="s">
         <v>1271</v>
       </c>
@@ -29152,7 +29151,7 @@
         <v>1337</v>
       </c>
     </row>
-    <row r="995" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="995" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A995" t="s">
         <v>1272</v>
       </c>
@@ -29220,7 +29219,7 @@
       <c r="G997" t="s">
         <v>1376</v>
       </c>
-      <c r="H997" s="4"/>
+      <c r="H997" s="1"/>
     </row>
     <row r="998" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A998" t="s">
@@ -29269,7 +29268,7 @@
       </c>
       <c r="H999" s="2"/>
     </row>
-    <row r="1000" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1000" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1000" t="s">
         <v>1271</v>
       </c>
@@ -29292,7 +29291,7 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="1001" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1001" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1001" t="s">
         <v>1272</v>
       </c>
@@ -29410,7 +29409,7 @@
         <v>1382</v>
       </c>
     </row>
-    <row r="1006" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1006" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1006" t="s">
         <v>1271</v>
       </c>
@@ -29433,7 +29432,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="1007" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1007" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1007" t="s">
         <v>1272</v>
       </c>
@@ -29548,7 +29547,7 @@
         <v>1385</v>
       </c>
     </row>
-    <row r="1012" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1012" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1012" t="s">
         <v>1271</v>
       </c>
@@ -29571,7 +29570,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="1013" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1013" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1013" t="s">
         <v>1272</v>
       </c>
@@ -29689,7 +29688,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="1018" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1018" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1018" t="s">
         <v>1271</v>
       </c>
@@ -29712,7 +29711,7 @@
         <v>1347</v>
       </c>
     </row>
-    <row r="1019" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1019" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1019" t="s">
         <v>1272</v>
       </c>
@@ -29783,7 +29782,7 @@
       <c r="G1021" t="s">
         <v>1394</v>
       </c>
-      <c r="H1021" s="4"/>
+      <c r="H1021" s="1"/>
     </row>
     <row r="1022" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1022" t="s">
@@ -29831,7 +29830,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="1024" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1024" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1024" t="s">
         <v>1271</v>
       </c>
@@ -29853,8 +29852,11 @@
       <c r="G1024" t="s">
         <v>1349</v>
       </c>
-    </row>
-    <row r="1025" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H1024" t="s">
+        <v>1639</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1025" t="s">
         <v>1272</v>
       </c>
@@ -29875,9 +29877,6 @@
       </c>
       <c r="G1025" t="s">
         <v>1349</v>
-      </c>
-      <c r="H1025" t="s">
-        <v>1639</v>
       </c>
     </row>
     <row r="1026" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
@@ -29972,7 +29971,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="1030" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1030" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1030" t="s">
         <v>1271</v>
       </c>
@@ -29995,7 +29994,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="1031" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1031" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1031" t="s">
         <v>1272</v>
       </c>
@@ -30066,7 +30065,7 @@
       <c r="G1033" t="s">
         <v>1403</v>
       </c>
-      <c r="H1033" s="4"/>
+      <c r="H1033" s="1"/>
     </row>
     <row r="1034" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1034" t="s">
@@ -30114,7 +30113,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="1036" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1036" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1036" t="s">
         <v>1271</v>
       </c>
@@ -30137,7 +30136,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="1037" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1037" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1037" t="s">
         <v>1272</v>
       </c>
@@ -30255,7 +30254,7 @@
         <v>1411</v>
       </c>
     </row>
-    <row r="1042" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1042" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1042" t="s">
         <v>1271</v>
       </c>
@@ -30278,7 +30277,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="1043" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1043" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1043" t="s">
         <v>1272</v>
       </c>
@@ -30393,7 +30392,7 @@
         <v>1417</v>
       </c>
     </row>
-    <row r="1048" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1048" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1048" t="s">
         <v>1271</v>
       </c>
@@ -30416,7 +30415,7 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="1049" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1049" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1049" t="s">
         <v>1272</v>
       </c>
@@ -30531,9 +30530,9 @@
       <c r="G1053" t="s">
         <v>1426</v>
       </c>
-      <c r="H1053" s="4"/>
-    </row>
-    <row r="1054" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H1053" s="1"/>
+    </row>
+    <row r="1054" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1054" t="s">
         <v>1271</v>
       </c>
@@ -30556,7 +30555,7 @@
         <v>1359</v>
       </c>
     </row>
-    <row r="1055" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1055" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1055" t="s">
         <v>1272</v>
       </c>
@@ -30627,7 +30626,7 @@
       <c r="G1057" t="s">
         <v>1428</v>
       </c>
-      <c r="H1057" s="4"/>
+      <c r="H1057" s="1"/>
     </row>
     <row r="1058" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1058" t="s">
@@ -30675,7 +30674,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="1060" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1060" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1060" t="s">
         <v>1271</v>
       </c>
@@ -30698,7 +30697,7 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="1061" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1061" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1061" t="s">
         <v>1272</v>
       </c>
@@ -30812,9 +30811,9 @@
       <c r="G1065" t="s">
         <v>1434</v>
       </c>
-      <c r="H1065" s="4"/>
-    </row>
-    <row r="1066" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H1065" s="1"/>
+    </row>
+    <row r="1066" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1066" t="s">
         <v>1271</v>
       </c>
@@ -30837,7 +30836,7 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="1067" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1067" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1067" t="s">
         <v>1272</v>
       </c>
@@ -30955,7 +30954,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="1072" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1072" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1072" t="s">
         <v>1271</v>
       </c>
@@ -30978,7 +30977,7 @@
         <v>1365</v>
       </c>
     </row>
-    <row r="1073" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1073" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1073" t="s">
         <v>1272</v>
       </c>
@@ -31100,7 +31099,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="1078" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1078" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1078" t="s">
         <v>1271</v>
       </c>
@@ -31123,7 +31122,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="1079" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1079" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1079" t="s">
         <v>1272</v>
       </c>
@@ -31244,7 +31243,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="1084" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1084" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1084" t="s">
         <v>1271</v>
       </c>
@@ -31267,7 +31266,7 @@
         <v>1369</v>
       </c>
     </row>
-    <row r="1085" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1085" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1085" t="s">
         <v>1272</v>
       </c>
@@ -31391,7 +31390,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="1090" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1090" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1090" t="s">
         <v>1271</v>
       </c>
@@ -31414,7 +31413,7 @@
         <v>1371</v>
       </c>
     </row>
-    <row r="1091" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1091" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1091" t="s">
         <v>1272</v>
       </c>
@@ -31535,7 +31534,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="1096" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1096" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1096" t="s">
         <v>1271</v>
       </c>
@@ -31558,7 +31557,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="1097" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1097" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1097" t="s">
         <v>1272</v>
       </c>
@@ -31679,7 +31678,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="1102" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1102" t="s">
         <v>1271</v>
       </c>
@@ -31702,7 +31701,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="1103" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1103" t="s">
         <v>1272</v>
       </c>
@@ -31826,7 +31825,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="1108" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1108" t="s">
         <v>1271</v>
       </c>
@@ -31849,7 +31848,7 @@
         <v>1376</v>
       </c>
     </row>
-    <row r="1109" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1109" t="s">
         <v>1272</v>
       </c>
@@ -31970,7 +31969,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="1114" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1114" t="s">
         <v>1271</v>
       </c>
@@ -31993,7 +31992,7 @@
         <v>1378</v>
       </c>
     </row>
-    <row r="1115" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1115" t="s">
         <v>1272</v>
       </c>
@@ -32120,7 +32119,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="1120" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1120" t="s">
         <v>1271</v>
       </c>
@@ -32143,7 +32142,7 @@
         <v>1380</v>
       </c>
     </row>
-    <row r="1121" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1121" t="s">
         <v>1272</v>
       </c>
@@ -32264,7 +32263,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="1126" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1126" t="s">
         <v>1271</v>
       </c>
@@ -32287,7 +32286,7 @@
         <v>1382</v>
       </c>
     </row>
-    <row r="1127" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1127" t="s">
         <v>1272</v>
       </c>
@@ -32411,7 +32410,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="1132" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1132" t="s">
         <v>1271</v>
       </c>
@@ -32437,7 +32436,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="1133" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1133" t="s">
         <v>1272</v>
       </c>
@@ -32561,7 +32560,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="1138" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1138" t="s">
         <v>1271</v>
       </c>
@@ -32587,7 +32586,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="1139" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1139" t="s">
         <v>1272</v>
       </c>
@@ -32711,7 +32710,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="1144" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1144" t="s">
         <v>1271</v>
       </c>
@@ -32734,7 +32733,7 @@
         <v>1387</v>
       </c>
     </row>
-    <row r="1145" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1145" t="s">
         <v>1272</v>
       </c>
@@ -32855,7 +32854,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="1150" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1150" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1150" t="s">
         <v>1271</v>
       </c>
@@ -32878,7 +32877,7 @@
         <v>1389</v>
       </c>
     </row>
-    <row r="1151" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1151" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1151" t="s">
         <v>1272</v>
       </c>
@@ -32993,7 +32992,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="1156" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1156" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1156" t="s">
         <v>1271</v>
       </c>
@@ -33016,7 +33015,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="1157" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1157" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1157" t="s">
         <v>1272</v>
       </c>
@@ -33131,7 +33130,7 @@
         <v>1283</v>
       </c>
     </row>
-    <row r="1162" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1162" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1162" t="s">
         <v>1271</v>
       </c>
@@ -33154,7 +33153,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="1163" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1163" t="s">
         <v>1272</v>
       </c>
@@ -33269,7 +33268,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="1168" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1168" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1168" t="s">
         <v>1271</v>
       </c>
@@ -33292,7 +33291,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="1169" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1169" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1169" t="s">
         <v>1272</v>
       </c>
@@ -33407,7 +33406,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="1174" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1174" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1174" t="s">
         <v>1271</v>
       </c>
@@ -33430,7 +33429,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="1175" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1175" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1175" t="s">
         <v>1272</v>
       </c>
@@ -33545,7 +33544,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="1180" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1180" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1180" t="s">
         <v>1271</v>
       </c>
@@ -33568,7 +33567,7 @@
         <v>1398</v>
       </c>
     </row>
-    <row r="1181" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1181" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1181" t="s">
         <v>1272</v>
       </c>
@@ -33683,7 +33682,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="1186" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1186" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1186" t="s">
         <v>1271</v>
       </c>
@@ -33706,7 +33705,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="1187" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1187" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1187" t="s">
         <v>1272</v>
       </c>
@@ -33824,7 +33823,7 @@
         <v>1318</v>
       </c>
     </row>
-    <row r="1192" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1192" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1192" t="s">
         <v>1271</v>
       </c>
@@ -33847,7 +33846,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="1193" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1193" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1193" t="s">
         <v>1272</v>
       </c>
@@ -33965,7 +33964,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="1198" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1198" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1198" t="s">
         <v>1271</v>
       </c>
@@ -33988,7 +33987,7 @@
         <v>1403</v>
       </c>
     </row>
-    <row r="1199" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1199" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1199" t="s">
         <v>1272</v>
       </c>
@@ -34103,7 +34102,7 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="1204" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1204" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1204" t="s">
         <v>1271</v>
       </c>
@@ -34126,7 +34125,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="1205" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1205" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1205" t="s">
         <v>1272</v>
       </c>
@@ -34250,7 +34249,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="1210" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1210" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1210" t="s">
         <v>1271</v>
       </c>
@@ -34273,7 +34272,7 @@
         <v>1407</v>
       </c>
     </row>
-    <row r="1211" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1211" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1211" t="s">
         <v>1272</v>
       </c>
@@ -34388,7 +34387,7 @@
         <v>1349</v>
       </c>
     </row>
-    <row r="1216" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1216" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1216" t="s">
         <v>1271</v>
       </c>
@@ -34411,7 +34410,7 @@
         <v>1409</v>
       </c>
     </row>
-    <row r="1217" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1217" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1217" t="s">
         <v>1272</v>
       </c>
@@ -34526,7 +34525,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="1222" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1222" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1222" t="s">
         <v>1271</v>
       </c>
@@ -34549,7 +34548,7 @@
         <v>1411</v>
       </c>
     </row>
-    <row r="1223" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1223" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1223" t="s">
         <v>1272</v>
       </c>
@@ -34664,7 +34663,7 @@
         <v>1359</v>
       </c>
     </row>
-    <row r="1228" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1228" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1228" t="s">
         <v>1271</v>
       </c>
@@ -34687,7 +34686,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="1229" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1229" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1229" t="s">
         <v>1272</v>
       </c>
@@ -34802,7 +34801,7 @@
         <v>1365</v>
       </c>
     </row>
-    <row r="1234" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1234" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1234" t="s">
         <v>1271</v>
       </c>
@@ -34825,7 +34824,7 @@
         <v>1415</v>
       </c>
     </row>
-    <row r="1235" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1235" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1235" t="s">
         <v>1272</v>
       </c>
@@ -34940,7 +34939,7 @@
         <v>1371</v>
       </c>
     </row>
-    <row r="1240" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1240" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1240" t="s">
         <v>1271</v>
       </c>
@@ -34963,7 +34962,7 @@
         <v>1417</v>
       </c>
     </row>
-    <row r="1241" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1241" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1241" t="s">
         <v>1272</v>
       </c>
@@ -35081,7 +35080,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="1246" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1246" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1246" t="s">
         <v>1271</v>
       </c>
@@ -35104,7 +35103,7 @@
         <v>1419</v>
       </c>
     </row>
-    <row r="1247" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1247" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1247" t="s">
         <v>1272</v>
       </c>
@@ -35219,7 +35218,7 @@
         <v>1380</v>
       </c>
     </row>
-    <row r="1252" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1252" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1252" t="s">
         <v>1271</v>
       </c>
@@ -35242,7 +35241,7 @@
         <v>1387</v>
       </c>
     </row>
-    <row r="1253" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1253" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1253" t="s">
         <v>1272</v>
       </c>
@@ -35357,7 +35356,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="1258" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1258" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1258" t="s">
         <v>1271</v>
       </c>
@@ -35380,7 +35379,7 @@
         <v>1422</v>
       </c>
     </row>
-    <row r="1259" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1259" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1259" t="s">
         <v>1272</v>
       </c>
@@ -35495,7 +35494,7 @@
         <v>1387</v>
       </c>
     </row>
-    <row r="1264" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1264" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1264" t="s">
         <v>1271</v>
       </c>
@@ -35518,7 +35517,7 @@
         <v>1424</v>
       </c>
     </row>
-    <row r="1265" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1265" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1265" t="s">
         <v>1272</v>
       </c>
@@ -35636,7 +35635,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="1270" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1270" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1270" t="s">
         <v>1271</v>
       </c>
@@ -35659,7 +35658,7 @@
         <v>1426</v>
       </c>
     </row>
-    <row r="1271" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1271" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1271" t="s">
         <v>1272</v>
       </c>
@@ -35777,7 +35776,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="1276" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1276" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1276" t="s">
         <v>1271</v>
       </c>
@@ -35800,7 +35799,7 @@
         <v>1428</v>
       </c>
     </row>
-    <row r="1277" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1277" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1277" t="s">
         <v>1272</v>
       </c>
@@ -35915,7 +35914,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="1282" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1282" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1282" t="s">
         <v>1271</v>
       </c>
@@ -35938,7 +35937,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="1283" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1283" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1283" t="s">
         <v>1272</v>
       </c>
@@ -36053,7 +36052,7 @@
         <v>1407</v>
       </c>
     </row>
-    <row r="1288" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1288" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1288" t="s">
         <v>1271</v>
       </c>
@@ -36076,7 +36075,7 @@
         <v>1432</v>
       </c>
     </row>
-    <row r="1289" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1289" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1289" t="s">
         <v>1272</v>
       </c>
@@ -36194,7 +36193,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="1294" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1294" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1294" t="s">
         <v>1271</v>
       </c>
@@ -36217,7 +36216,7 @@
         <v>1434</v>
       </c>
     </row>
-    <row r="1295" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1295" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1295" t="s">
         <v>1272</v>
       </c>
@@ -36332,7 +36331,7 @@
         <v>1417</v>
       </c>
     </row>
-    <row r="1300" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1300" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1300" t="s">
         <v>1271</v>
       </c>
@@ -36355,7 +36354,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="1301" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1301" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1301" t="s">
         <v>1272</v>
       </c>
@@ -36470,7 +36469,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="1306" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1306" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1306" t="s">
         <v>1271</v>
       </c>
@@ -36493,7 +36492,7 @@
         <v>1438</v>
       </c>
     </row>
-    <row r="1307" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1307" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1307" t="s">
         <v>1272</v>
       </c>
@@ -36608,7 +36607,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="1312" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1312" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1312" t="s">
         <v>1271</v>
       </c>
@@ -36631,7 +36630,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="1313" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1313" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1313" t="s">
         <v>1272</v>
       </c>
@@ -36749,7 +36748,7 @@
         <v>1442</v>
       </c>
     </row>
-    <row r="1318" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1318" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1318" t="s">
         <v>1271</v>
       </c>
@@ -36772,7 +36771,7 @@
         <v>1442</v>
       </c>
     </row>
-    <row r="1319" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1319" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1319" t="s">
         <v>1272</v>
       </c>
